--- a/biology/Médecine/Muscle_abducteur_de_l'hallux/Muscle_abducteur_de_l'hallux.xlsx
+++ b/biology/Médecine/Muscle_abducteur_de_l'hallux/Muscle_abducteur_de_l'hallux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle abducteur de l'hallux (Musculus abductor hallucis) ou anciennement muscle adducteur du gros orteil[1] est un muscle du membre inférieur situé sur le bord médial la face plantaire du pied.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle abducteur de l'hallux (Musculus abductor hallucis) ou anciennement muscle adducteur du gros orteil est un muscle du membre inférieur situé sur le bord médial la face plantaire du pied.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les ouvrages d’anatomie plus anciens il était appelé muscle adducteur du gros orteil, en effet son action a pour effet de rapprocher le gros orteil de l’axe du corps comme le veut la définition de l’adduction : mouvement qui rapproche un membre de l’axe du corps.
 Pour l'anatomie contemporaine, l'axe de référence pour l'adduction et l'abduction au niveau de la main et du pied est l'axe passant au milieu de la main ou du pied passant par le troisième doigt.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux est un muscle aplati et allongé occupant la loge plantaire médiale. Il unit le calcanéus à la phalange proximale de l'hallux.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux se fixe sur la partie médiale de le processus médial de la tubérosité calcanéenne en arrière de l'insertion du chef interne du muscle carré plantaire, sur l'aponévrose plantaire et sur le rétinaculum des muscles fléchisseurs du pied, sur la cloison intermusculaire qui le sépare en dehors du muscle court fléchisseur de l’hallux, et parfois un faisceau inséré sur le tubercule de la face médiale de l’os naviculaire.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux se dirige vers l'avant en suivant le bord médial du pied, dans sa partie inférieure et est responsable du relief du bord du pied. Il fusionne avec le faisceau médial du muscle court fléchisseur de l'hallux.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux s'insère sur le os sésamoïde médial et sur le bord médial de la première phalange.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux est innervé par une branche collatérale du nerf plantaire médial.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux est vascularisé par l'artère plantaire médiale.
 </t>
@@ -711,7 +737,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Muscle_abducteur_de_l%27hallux</t>
+          <t>Muscle_abducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,7 +755,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abducteur de l'hallux est abducteur et fléchisseur de la phalange proximale du gros orteil sur le premier métatarsien.
 </t>
